--- a/biology/Botanique/Square_Président-Allende/Square_Président-Allende.xlsx
+++ b/biology/Botanique/Square_Président-Allende/Square_Président-Allende.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Square_Pr%C3%A9sident-Allende</t>
+          <t>Square_Président-Allende</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le square Président-Allende est un jardin public de Strasbourg situé dans le quartier de la Krutenau. 
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Square_Pr%C3%A9sident-Allende</t>
+          <t>Square_Président-Allende</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il va de la place du Foin à l'(ancienne) impasse de la Lune[1] — devenue ruelle — qui la relie à la rue du Maréchal-Juin. À l'ouest se trouvent la rue de l'Abreuvoir et le quartier historique de Krutenau ; à l'est s'étendent la rue Pierre-Montet et les infrastructures universitaires de l'Esplanade[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il va de la place du Foin à l'(ancienne) impasse de la Lune — devenue ruelle — qui la relie à la rue du Maréchal-Juin. À l'ouest se trouvent la rue de l'Abreuvoir et le quartier historique de Krutenau ; à l'est s'étendent la rue Pierre-Montet et les infrastructures universitaires de l'Esplanade.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Square_Pr%C3%A9sident-Allende</t>
+          <t>Square_Président-Allende</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Histoire et origine du nom</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le square a été créé en 1990 sur l'emplacement de l'ancienne école normale d'institutrices protestantes de Strasbourg. Seuls subsistent quelques vestiges du pensionnat, endommagé pendant la Seconde Guerre mondiale[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le square a été créé en 1990 sur l'emplacement de l'ancienne école normale d'institutrices protestantes de Strasbourg. Seuls subsistent quelques vestiges du pensionnat, endommagé pendant la Seconde Guerre mondiale.
 Il doit son nom à Salvador Allende (1908-1973), ancien président du Chili. Cette dénomination intervient un an après l'accession de la socialiste Catherine Trautmann à la mairie de Strasbourg.
 </t>
         </is>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Square_Pr%C3%A9sident-Allende</t>
+          <t>Square_Président-Allende</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,9 +591,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une maison à pans de bois datant du XIXe siècle forme l'angle avec l'impasse de la Lune[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une maison à pans de bois datant du XIXe siècle forme l'angle avec l'impasse de la Lune.
 			Angle de l'impasse de la Lune.
 			Aire de jeux.
 </t>
